--- a/data/trans_bre/BARTHEL_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/BARTHEL_R2-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4476789739815124</v>
+        <v>0.2869253072389362</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.870565865541701</v>
+        <v>3.174794791517303</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.118325054692716</v>
+        <v>4.384763143891353</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.608299559517282</v>
+        <v>5.486629524177145</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.0464240815968809</v>
+        <v>-0.005313199034693189</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1719842634823192</v>
+        <v>0.1468860535966843</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2106505011630631</v>
+        <v>0.2138718969390224</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2382008830299466</v>
+        <v>0.2342922876976753</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.380164772180422</v>
+        <v>8.294371920778639</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.37423280399069</v>
+        <v>14.40850858513115</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.92446573105345</v>
+        <v>15.13337853872211</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14.86682432335876</v>
+        <v>15.0959105679659</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.146040050462601</v>
+        <v>1.02759429759288</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9709601237080367</v>
+        <v>0.9696149164258774</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.119895639545313</v>
+        <v>1.158577656760483</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.9065789751196213</v>
+        <v>0.912369879542677</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>7.998967573044954</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4.654026921750522</v>
+        <v>4.65402692175052</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>2.15275583439019</v>
@@ -749,7 +749,7 @@
         <v>1.447437015732958</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.5454037561826807</v>
+        <v>0.5454037561826804</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.4323404058807086</v>
+        <v>-0.8927257498864971</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.4374240901242394</v>
+        <v>-0.6852328774148728</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.602883504378896</v>
+        <v>2.15587907894662</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5136226610663654</v>
+        <v>0.7169060473220968</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5358520669018997</v>
+        <v>-0.5004923498810526</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.160953123698775</v>
+        <v>-0.1465466734223939</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1184598219471006</v>
+        <v>0.2457773179197838</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.01772430575563816</v>
+        <v>0.07041682170881877</v>
       </c>
     </row>
     <row r="9">
@@ -792,26 +792,26 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>16.40086933712677</v>
+        <v>16.22996655189825</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>18.35498985450193</v>
+        <v>18.11492767700326</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14.8339365326359</v>
+        <v>14.88502701831099</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.420134716471765</v>
+        <v>8.617979111399974</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>4.502411855992497</v>
+        <v>4.541605638964859</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>4.074539459655568</v>
+        <v>4.352355049139355</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.238072188455425</v>
+        <v>1.371887797974008</v>
       </c>
     </row>
     <row r="10">
@@ -835,7 +835,7 @@
         <v>-3.472279890315142</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.311327669187846</v>
+        <v>1.311327669187847</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>2.541819842631371</v>
@@ -847,7 +847,7 @@
         <v>-0.4594258587734539</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.2361772105031656</v>
+        <v>0.2361772105031658</v>
       </c>
     </row>
     <row r="11">
@@ -858,22 +858,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.371595902236121</v>
+        <v>-3.40996892862862</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.852235666851354</v>
+        <v>-3.45573885072989</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-14.5848764501167</v>
+        <v>-15.59705382844067</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.334398652388408</v>
+        <v>-3.916732415607459</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>-0.5883084614410847</v>
+        <v>-0.5351514851094894</v>
       </c>
     </row>
     <row r="12">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>26.82283000051184</v>
+        <v>25.94085691417923</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>34.46415753343475</v>
+        <v>32.87680278451442</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.390961013707084</v>
+        <v>8.830916645872449</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.159113591082098</v>
+        <v>7.159211136093248</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>2.441741201564197</v>
+        <v>2.129349186038235</v>
       </c>
     </row>
     <row r="13">
@@ -923,7 +923,7 @@
         <v>9.819806318225437</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10.27111002358586</v>
+        <v>10.27111002358587</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6948582472638515</v>
@@ -935,7 +935,7 @@
         <v>0.8243572498127285</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.8130253602583307</v>
+        <v>0.8130253602583312</v>
       </c>
     </row>
     <row r="14">
@@ -946,28 +946,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.080230830872186</v>
+        <v>2.405450944953989</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.669614498393508</v>
+        <v>6.012415359734567</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5.834563411512478</v>
+        <v>5.785400815459088</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7.46056030612149</v>
+        <v>7.467214134642952</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2100832835441862</v>
+        <v>0.2342647159190188</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3344339235660165</v>
+        <v>0.3481403444405826</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4214906167075412</v>
+        <v>0.414683868380437</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.5234327128876824</v>
+        <v>0.5324116775025424</v>
       </c>
     </row>
     <row r="15">
@@ -978,28 +978,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.245602558854916</v>
+        <v>9.31431996039338</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>15.52174906536714</v>
+        <v>15.2027246834463</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13.87034988720173</v>
+        <v>13.94131050602191</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>13.46505229733046</v>
+        <v>12.99324306590634</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.503216588305722</v>
+        <v>1.431404834682538</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.27067728571743</v>
+        <v>1.263257725386525</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.373617030471076</v>
+        <v>1.354692390186816</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.218509223276619</v>
+        <v>1.175853990220866</v>
       </c>
     </row>
     <row r="16">
